--- a/src/main/resources/excel-import-loan/import_loan_month_interest.xlsx
+++ b/src/main/resources/excel-import-loan/import_loan_month_interest.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pele/job/icoop-cm/icoop-backend/src/main/resources/excel-import-loan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6488BAE1-4A21-2642-9204-F66E1E656ECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C5E819-2DB1-1F46-8D4F-1D635004B83A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="21200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1560" windowWidth="36000" windowHeight="21200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="มกราคม" sheetId="1" r:id="rId1"/>
+    <sheet name="กุมภาพันธ์" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="55">
   <si>
     <t>หน่วยงาน*</t>
   </si>
@@ -197,6 +198,9 @@
   </si>
   <si>
     <t>มกราคม</t>
+  </si>
+  <si>
+    <t>กุมภาพันธ์</t>
   </si>
 </sst>
 </file>
@@ -255,7 +259,37 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -564,8 +598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView zoomScale="90" workbookViewId="0">
+      <selection activeCell="J11" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -995,54 +1029,256 @@
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B32" s="3"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F7F90EF-1F96-844D-8089-72AAD86AE79E}">
+  <dimension ref="A1:F36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="55.1640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="23" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15" style="3" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="8" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3">
+        <v>3294</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="3">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1818</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="3">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1544</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="3">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="3">
+        <v>733</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="3">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="3">
+        <v>2460</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="3">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="B13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="2:2" ht="21" x14ac:dyDescent="0.25">
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="2:2" ht="21" x14ac:dyDescent="0.25">
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" spans="2:2" ht="21" x14ac:dyDescent="0.25">
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="2:2" ht="21" x14ac:dyDescent="0.25">
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="2:2" ht="21" x14ac:dyDescent="0.25">
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" spans="2:2" ht="21" x14ac:dyDescent="0.25">
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" spans="2:2" ht="21" x14ac:dyDescent="0.25">
+      <c r="B23" s="3"/>
+    </row>
+    <row r="24" spans="2:2" ht="21" x14ac:dyDescent="0.25">
+      <c r="B24" s="3"/>
+    </row>
+    <row r="25" spans="2:2" ht="21" x14ac:dyDescent="0.25">
+      <c r="B25" s="3"/>
+    </row>
+    <row r="26" spans="2:2" ht="21" x14ac:dyDescent="0.25">
+      <c r="B26" s="3"/>
+    </row>
+    <row r="27" spans="2:2" ht="21" x14ac:dyDescent="0.25">
+      <c r="B27" s="3"/>
+    </row>
+    <row r="28" spans="2:2" ht="21" x14ac:dyDescent="0.25">
+      <c r="B28" s="3"/>
+    </row>
+    <row r="29" spans="2:2" ht="21" x14ac:dyDescent="0.25">
+      <c r="B29" s="3"/>
+    </row>
+    <row r="30" spans="2:2" ht="21" x14ac:dyDescent="0.25">
+      <c r="B30" s="3"/>
+    </row>
+    <row r="31" spans="2:2" ht="21" x14ac:dyDescent="0.25">
+      <c r="B31" s="3"/>
+    </row>
+    <row r="32" spans="2:2" ht="21" x14ac:dyDescent="0.25">
+      <c r="B32" s="3"/>
+    </row>
+    <row r="33" spans="2:2" ht="21" x14ac:dyDescent="0.25">
       <c r="B33" s="3"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:2" ht="21" x14ac:dyDescent="0.25">
       <c r="B34" s="3"/>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:2" ht="21" x14ac:dyDescent="0.25">
       <c r="B35" s="3"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36" s="3"/>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37" s="3"/>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B38" s="3"/>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B39" s="3"/>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B40" s="3"/>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B41" s="3"/>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B42" s="3"/>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B43" s="3"/>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B44" s="3"/>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B45" s="3"/>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B46" s="3"/>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B47" s="3"/>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B48" s="3"/>
-    </row>
+    <row r="36" spans="2:2" ht="21" x14ac:dyDescent="0.25"/>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
     <cfRule type="duplicateValues" dxfId="2" priority="1"/>
